--- a/QuotesBase.xlsx
+++ b/QuotesBase.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
